--- a/natmiOut/OldD2/LR-pairs_lrc2p/Il1rn-Il1r1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Il1rn-Il1r1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -85,19 +88,16 @@
     <t>Neutro</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Il1rn</t>
   </si>
   <si>
     <t>Il1r1</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>75.4563572472867</v>
+        <v>0.313504</v>
       </c>
       <c r="H2">
-        <v>75.4563572472867</v>
+        <v>0.627008</v>
       </c>
       <c r="I2">
-        <v>0.5574196740061483</v>
+        <v>0.002221133687735783</v>
       </c>
       <c r="J2">
-        <v>0.5574196740061483</v>
+        <v>0.001481904042397589</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.9402206690813</v>
+        <v>20.003843</v>
       </c>
       <c r="N2">
-        <v>17.9402206690813</v>
+        <v>40.007686</v>
       </c>
       <c r="O2">
-        <v>0.1470734896687511</v>
+        <v>0.1517504313331627</v>
       </c>
       <c r="P2">
-        <v>0.1470734896687511</v>
+        <v>0.1111693208434551</v>
       </c>
       <c r="Q2">
-        <v>1353.703699901355</v>
+        <v>6.271284795872</v>
       </c>
       <c r="R2">
-        <v>1353.703699901355</v>
+        <v>25.085139183488</v>
       </c>
       <c r="S2">
-        <v>0.08198165666610187</v>
+        <v>0.0003370579951625235</v>
       </c>
       <c r="T2">
-        <v>0.08198165666610187</v>
+        <v>0.0001647422659485107</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>75.4563572472867</v>
+        <v>0.313504</v>
       </c>
       <c r="H3">
-        <v>75.4563572472867</v>
+        <v>0.627008</v>
       </c>
       <c r="I3">
-        <v>0.5574196740061483</v>
+        <v>0.002221133687735783</v>
       </c>
       <c r="J3">
-        <v>0.5574196740061483</v>
+        <v>0.001481904042397589</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>80.37749150087841</v>
+        <v>85.28390633333333</v>
       </c>
       <c r="N3">
-        <v>80.37749150087841</v>
+        <v>255.851719</v>
       </c>
       <c r="O3">
-        <v>0.6589327067881564</v>
+        <v>0.6469691634682588</v>
       </c>
       <c r="P3">
-        <v>0.6589327067881564</v>
+        <v>0.710934939797831</v>
       </c>
       <c r="Q3">
-        <v>6064.992713331032</v>
+        <v>26.73684577112533</v>
       </c>
       <c r="R3">
-        <v>6064.992713331032</v>
+        <v>160.421074626752</v>
       </c>
       <c r="S3">
-        <v>0.3673020546098431</v>
+        <v>0.001437005003905589</v>
       </c>
       <c r="T3">
-        <v>0.3673020546098431</v>
+        <v>0.001053537361168093</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>75.4563572472867</v>
+        <v>0.313504</v>
       </c>
       <c r="H4">
-        <v>75.4563572472867</v>
+        <v>0.627008</v>
       </c>
       <c r="I4">
-        <v>0.5574196740061483</v>
+        <v>0.002221133687735783</v>
       </c>
       <c r="J4">
-        <v>0.5574196740061483</v>
+        <v>0.001481904042397589</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.289509678950694</v>
+        <v>0.3719913333333333</v>
       </c>
       <c r="N4">
-        <v>0.289509678950694</v>
+        <v>1.115974</v>
       </c>
       <c r="O4">
-        <v>0.00237339325761698</v>
+        <v>0.002821950026578976</v>
       </c>
       <c r="P4">
-        <v>0.00237339325761698</v>
+        <v>0.003100955942789443</v>
       </c>
       <c r="Q4">
-        <v>21.84534576145085</v>
+        <v>0.1166207709653333</v>
       </c>
       <c r="R4">
-        <v>21.84534576145085</v>
+        <v>0.699724625792</v>
       </c>
       <c r="S4">
-        <v>0.001322976095949248</v>
+        <v>6.267928269141452E-06</v>
       </c>
       <c r="T4">
-        <v>0.001322976095949248</v>
+        <v>4.595319146916503E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>75.4563572472867</v>
+        <v>0.313504</v>
       </c>
       <c r="H5">
-        <v>75.4563572472867</v>
+        <v>0.627008</v>
       </c>
       <c r="I5">
-        <v>0.5574196740061483</v>
+        <v>0.002221133687735783</v>
       </c>
       <c r="J5">
-        <v>0.5574196740061483</v>
+        <v>0.001481904042397589</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.355955655560954</v>
+        <v>0.3862156666666667</v>
       </c>
       <c r="N5">
-        <v>0.355955655560954</v>
+        <v>1.158647</v>
       </c>
       <c r="O5">
-        <v>0.002918115746530467</v>
+        <v>0.002929856728244252</v>
       </c>
       <c r="P5">
-        <v>0.002918115746530467</v>
+        <v>0.003219531369230071</v>
       </c>
       <c r="Q5">
-        <v>26.85911711019948</v>
+        <v>0.1210801563626667</v>
       </c>
       <c r="R5">
-        <v>26.85911711019948</v>
+        <v>0.726480938176</v>
       </c>
       <c r="S5">
-        <v>0.001626615128143221</v>
+        <v>6.507603479342652E-06</v>
       </c>
       <c r="T5">
-        <v>0.001626615128143221</v>
+        <v>4.771036550687889E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>75.4563572472867</v>
+        <v>0.313504</v>
       </c>
       <c r="H6">
-        <v>75.4563572472867</v>
+        <v>0.627008</v>
       </c>
       <c r="I6">
-        <v>0.5574196740061483</v>
+        <v>0.002221133687735783</v>
       </c>
       <c r="J6">
-        <v>0.5574196740061483</v>
+        <v>0.001481904042397589</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.0097900643193</v>
+        <v>10.19719066666667</v>
       </c>
       <c r="N6">
-        <v>10.0097900643193</v>
+        <v>30.591572</v>
       </c>
       <c r="O6">
-        <v>0.08206001379616369</v>
+        <v>0.07735654004348905</v>
       </c>
       <c r="P6">
-        <v>0.08206001379616369</v>
+        <v>0.08500477340213224</v>
       </c>
       <c r="Q6">
-        <v>755.3022950636181</v>
+        <v>3.196860062762667</v>
       </c>
       <c r="R6">
-        <v>755.3022950636181</v>
+        <v>19.181160376576</v>
       </c>
       <c r="S6">
-        <v>0.0457418661391976</v>
+        <v>0.0001718192170572756</v>
       </c>
       <c r="T6">
-        <v>0.0457418661391976</v>
+        <v>0.0001259689173277108</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>75.4563572472867</v>
+        <v>0.313504</v>
       </c>
       <c r="H7">
-        <v>75.4563572472867</v>
+        <v>0.627008</v>
       </c>
       <c r="I7">
-        <v>0.5574196740061483</v>
+        <v>0.002221133687735783</v>
       </c>
       <c r="J7">
-        <v>0.5574196740061483</v>
+        <v>0.001481904042397589</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.0083678131839</v>
+        <v>15.5775195</v>
       </c>
       <c r="N7">
-        <v>13.0083678131839</v>
+        <v>31.155039</v>
       </c>
       <c r="O7">
-        <v>0.1066422807427814</v>
+        <v>0.1181720584002661</v>
       </c>
       <c r="P7">
-        <v>0.1066422807427814</v>
+        <v>0.08657047864456238</v>
       </c>
       <c r="Q7">
-        <v>981.5640489157101</v>
+        <v>4.883614673328</v>
       </c>
       <c r="R7">
-        <v>981.5640489157101</v>
+        <v>19.534458693312</v>
       </c>
       <c r="S7">
-        <v>0.05944450536691334</v>
+        <v>0.0002624759398619114</v>
       </c>
       <c r="T7">
-        <v>0.05944450536691334</v>
+        <v>0.0001282891422556712</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>59.6123852992095</v>
+        <v>80.334695</v>
       </c>
       <c r="H8">
-        <v>59.6123852992095</v>
+        <v>241.004085</v>
       </c>
       <c r="I8">
-        <v>0.4403753055731979</v>
+        <v>0.5691605126520854</v>
       </c>
       <c r="J8">
-        <v>0.4403753055731979</v>
+        <v>0.5696018675931284</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.9402206690813</v>
+        <v>20.003843</v>
       </c>
       <c r="N8">
-        <v>17.9402206690813</v>
+        <v>40.007686</v>
       </c>
       <c r="O8">
-        <v>0.1470734896687511</v>
+        <v>0.1517504313331627</v>
       </c>
       <c r="P8">
-        <v>0.1470734896687511</v>
+        <v>0.1111693208434551</v>
       </c>
       <c r="Q8">
-        <v>1069.459346878116</v>
+        <v>1607.002626232885</v>
       </c>
       <c r="R8">
-        <v>1069.459346878116</v>
+        <v>9642.01575739731</v>
       </c>
       <c r="S8">
-        <v>0.06476753295459284</v>
+        <v>0.086370353292758</v>
       </c>
       <c r="T8">
-        <v>0.06476753295459284</v>
+        <v>0.06332225277149173</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>59.6123852992095</v>
+        <v>80.334695</v>
       </c>
       <c r="H9">
-        <v>59.6123852992095</v>
+        <v>241.004085</v>
       </c>
       <c r="I9">
-        <v>0.4403753055731979</v>
+        <v>0.5691605126520854</v>
       </c>
       <c r="J9">
-        <v>0.4403753055731979</v>
+        <v>0.5696018675931284</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>80.37749150087841</v>
+        <v>85.28390633333333</v>
       </c>
       <c r="N9">
-        <v>80.37749150087841</v>
+        <v>255.851719</v>
       </c>
       <c r="O9">
-        <v>0.6589327067881564</v>
+        <v>0.6469691634682588</v>
       </c>
       <c r="P9">
-        <v>0.6589327067881564</v>
+        <v>0.710934939797831</v>
       </c>
       <c r="Q9">
-        <v>4791.4939927343</v>
+        <v>6851.256603696901</v>
       </c>
       <c r="R9">
-        <v>4791.4939927343</v>
+        <v>61661.30943327212</v>
       </c>
       <c r="S9">
-        <v>0.2901776921040088</v>
+        <v>0.3682293007496851</v>
       </c>
       <c r="T9">
-        <v>0.2901776921040088</v>
+        <v>0.4049498694460528</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>59.6123852992095</v>
+        <v>80.334695</v>
       </c>
       <c r="H10">
-        <v>59.6123852992095</v>
+        <v>241.004085</v>
       </c>
       <c r="I10">
-        <v>0.4403753055731979</v>
+        <v>0.5691605126520854</v>
       </c>
       <c r="J10">
-        <v>0.4403753055731979</v>
+        <v>0.5696018675931284</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.289509678950694</v>
+        <v>0.3719913333333333</v>
       </c>
       <c r="N10">
-        <v>0.289509678950694</v>
+        <v>1.115974</v>
       </c>
       <c r="O10">
-        <v>0.00237339325761698</v>
+        <v>0.002821950026578976</v>
       </c>
       <c r="P10">
-        <v>0.00237339325761698</v>
+        <v>0.003100955942789443</v>
       </c>
       <c r="Q10">
-        <v>17.25836252945921</v>
+        <v>29.88381030597667</v>
       </c>
       <c r="R10">
-        <v>17.25836252945921</v>
+        <v>268.95429275379</v>
       </c>
       <c r="S10">
-        <v>0.001045183781068445</v>
+        <v>0.001606142523806256</v>
       </c>
       <c r="T10">
-        <v>0.001045183781068445</v>
+        <v>0.001766310296336877</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>59.6123852992095</v>
+        <v>80.334695</v>
       </c>
       <c r="H11">
-        <v>59.6123852992095</v>
+        <v>241.004085</v>
       </c>
       <c r="I11">
-        <v>0.4403753055731979</v>
+        <v>0.5691605126520854</v>
       </c>
       <c r="J11">
-        <v>0.4403753055731979</v>
+        <v>0.5696018675931284</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.355955655560954</v>
+        <v>0.3862156666666667</v>
       </c>
       <c r="N11">
-        <v>0.355955655560954</v>
+        <v>1.158647</v>
       </c>
       <c r="O11">
-        <v>0.002918115746530467</v>
+        <v>0.002929856728244252</v>
       </c>
       <c r="P11">
-        <v>0.002918115746530467</v>
+        <v>0.003219531369230071</v>
       </c>
       <c r="Q11">
-        <v>21.21936568873229</v>
+        <v>31.02651778588833</v>
       </c>
       <c r="R11">
-        <v>21.21936568873229</v>
+        <v>279.238660072995</v>
       </c>
       <c r="S11">
-        <v>0.001285066113576315</v>
+        <v>0.00166755875744466</v>
       </c>
       <c r="T11">
-        <v>0.001285066113576315</v>
+        <v>0.00183385108068811</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>59.6123852992095</v>
+        <v>80.334695</v>
       </c>
       <c r="H12">
-        <v>59.6123852992095</v>
+        <v>241.004085</v>
       </c>
       <c r="I12">
-        <v>0.4403753055731979</v>
+        <v>0.5691605126520854</v>
       </c>
       <c r="J12">
-        <v>0.4403753055731979</v>
+        <v>0.5696018675931284</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.0097900643193</v>
+        <v>10.19719066666667</v>
       </c>
       <c r="N12">
-        <v>10.0097900643193</v>
+        <v>30.591572</v>
       </c>
       <c r="O12">
-        <v>0.08206001379616369</v>
+        <v>0.07735654004348905</v>
       </c>
       <c r="P12">
-        <v>0.08206001379616369</v>
+        <v>0.08500477340213224</v>
       </c>
       <c r="Q12">
-        <v>596.7074620784012</v>
+        <v>819.1882020635132</v>
       </c>
       <c r="R12">
-        <v>596.7074620784012</v>
+        <v>7372.69381857162</v>
       </c>
       <c r="S12">
-        <v>0.03613720365082642</v>
+        <v>0.0440282879881438</v>
       </c>
       <c r="T12">
-        <v>0.03613720365082642</v>
+        <v>0.04841887768418521</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>59.6123852992095</v>
+        <v>80.334695</v>
       </c>
       <c r="H13">
-        <v>59.6123852992095</v>
+        <v>241.004085</v>
       </c>
       <c r="I13">
-        <v>0.4403753055731979</v>
+        <v>0.5691605126520854</v>
       </c>
       <c r="J13">
-        <v>0.4403753055731979</v>
+        <v>0.5696018675931284</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>13.0083678131839</v>
+        <v>15.5775195</v>
       </c>
       <c r="N13">
-        <v>13.0083678131839</v>
+        <v>31.155039</v>
       </c>
       <c r="O13">
-        <v>0.1066422807427814</v>
+        <v>0.1181720584002661</v>
       </c>
       <c r="P13">
-        <v>0.1066422807427814</v>
+        <v>0.08657047864456238</v>
       </c>
       <c r="Q13">
-        <v>775.459834193354</v>
+        <v>1251.415277889053</v>
       </c>
       <c r="R13">
-        <v>775.459834193354</v>
+        <v>7508.491667334316</v>
       </c>
       <c r="S13">
-        <v>0.0469626269691251</v>
+        <v>0.06725886934024762</v>
       </c>
       <c r="T13">
-        <v>0.0469626269691251</v>
+        <v>0.04931070631437377</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.298487506554318</v>
+        <v>59.89871966666666</v>
       </c>
       <c r="H14">
-        <v>0.298487506554318</v>
+        <v>179.696159</v>
       </c>
       <c r="I14">
-        <v>0.002205020420653806</v>
+        <v>0.4243743751399511</v>
       </c>
       <c r="J14">
-        <v>0.002205020420653806</v>
+        <v>0.4247034558178204</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>17.9402206690813</v>
+        <v>20.003843</v>
       </c>
       <c r="N14">
-        <v>17.9402206690813</v>
+        <v>40.007686</v>
       </c>
       <c r="O14">
-        <v>0.1470734896687511</v>
+        <v>0.1517504313331627</v>
       </c>
       <c r="P14">
-        <v>0.1470734896687511</v>
+        <v>0.1111693208434551</v>
       </c>
       <c r="Q14">
-        <v>5.354931734548315</v>
+        <v>1198.204584113012</v>
       </c>
       <c r="R14">
-        <v>5.354931734548315</v>
+        <v>7189.227504678073</v>
       </c>
       <c r="S14">
-        <v>0.0003243000480564128</v>
+        <v>0.06439899447422899</v>
       </c>
       <c r="T14">
-        <v>0.0003243000480564128</v>
+        <v>0.04721399474313545</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.298487506554318</v>
+        <v>59.89871966666666</v>
       </c>
       <c r="H15">
-        <v>0.298487506554318</v>
+        <v>179.696159</v>
       </c>
       <c r="I15">
-        <v>0.002205020420653806</v>
+        <v>0.4243743751399511</v>
       </c>
       <c r="J15">
-        <v>0.002205020420653806</v>
+        <v>0.4247034558178204</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>80.37749150087841</v>
+        <v>85.28390633333333</v>
       </c>
       <c r="N15">
-        <v>80.37749150087841</v>
+        <v>255.851719</v>
       </c>
       <c r="O15">
-        <v>0.6589327067881564</v>
+        <v>0.6469691634682588</v>
       </c>
       <c r="P15">
-        <v>0.6589327067881564</v>
+        <v>0.710934939797831</v>
       </c>
       <c r="Q15">
-        <v>23.99167702118808</v>
+        <v>5108.396797538591</v>
       </c>
       <c r="R15">
-        <v>23.99167702118808</v>
+        <v>45975.57117784732</v>
       </c>
       <c r="S15">
-        <v>0.001452960074304571</v>
+        <v>0.2745571344816592</v>
       </c>
       <c r="T15">
-        <v>0.001452960074304571</v>
+        <v>0.3019365257937729</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.298487506554318</v>
+        <v>59.89871966666666</v>
       </c>
       <c r="H16">
-        <v>0.298487506554318</v>
+        <v>179.696159</v>
       </c>
       <c r="I16">
-        <v>0.002205020420653806</v>
+        <v>0.4243743751399511</v>
       </c>
       <c r="J16">
-        <v>0.002205020420653806</v>
+        <v>0.4247034558178204</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.289509678950694</v>
+        <v>0.3719913333333333</v>
       </c>
       <c r="N16">
-        <v>0.289509678950694</v>
+        <v>1.115974</v>
       </c>
       <c r="O16">
-        <v>0.00237339325761698</v>
+        <v>0.002821950026578976</v>
       </c>
       <c r="P16">
-        <v>0.00237339325761698</v>
+        <v>0.003100955942789443</v>
       </c>
       <c r="Q16">
-        <v>0.08641502219333377</v>
+        <v>22.28180459376289</v>
       </c>
       <c r="R16">
-        <v>0.08641502219333377</v>
+        <v>200.536241343866</v>
       </c>
       <c r="S16">
-        <v>5.233380599287501E-06</v>
+        <v>0.001197563279205621</v>
       </c>
       <c r="T16">
-        <v>5.233380599287501E-06</v>
+        <v>0.001316986705241484</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.298487506554318</v>
+        <v>59.89871966666666</v>
       </c>
       <c r="H17">
-        <v>0.298487506554318</v>
+        <v>179.696159</v>
       </c>
       <c r="I17">
-        <v>0.002205020420653806</v>
+        <v>0.4243743751399511</v>
       </c>
       <c r="J17">
-        <v>0.002205020420653806</v>
+        <v>0.4247034558178204</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.355955655560954</v>
+        <v>0.3862156666666667</v>
       </c>
       <c r="N17">
-        <v>0.355955655560954</v>
+        <v>1.158647</v>
       </c>
       <c r="O17">
-        <v>0.002918115746530467</v>
+        <v>0.002929856728244252</v>
       </c>
       <c r="P17">
-        <v>0.002918115746530467</v>
+        <v>0.003219531369230071</v>
       </c>
       <c r="Q17">
-        <v>0.1062483160722968</v>
+        <v>23.13382394854144</v>
       </c>
       <c r="R17">
-        <v>0.1062483160722968</v>
+        <v>208.204415536873</v>
       </c>
       <c r="S17">
-        <v>6.434504810931106E-06</v>
+        <v>0.001243356118298236</v>
       </c>
       <c r="T17">
-        <v>6.434504810931106E-06</v>
+        <v>0.00136734609862589</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.298487506554318</v>
+        <v>59.89871966666666</v>
       </c>
       <c r="H18">
-        <v>0.298487506554318</v>
+        <v>179.696159</v>
       </c>
       <c r="I18">
-        <v>0.002205020420653806</v>
+        <v>0.4243743751399511</v>
       </c>
       <c r="J18">
-        <v>0.002205020420653806</v>
+        <v>0.4247034558178204</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>10.0097900643193</v>
+        <v>10.19719066666667</v>
       </c>
       <c r="N18">
-        <v>10.0097900643193</v>
+        <v>30.591572</v>
       </c>
       <c r="O18">
-        <v>0.08206001379616369</v>
+        <v>0.07735654004348905</v>
       </c>
       <c r="P18">
-        <v>0.08206001379616369</v>
+        <v>0.08500477340213224</v>
       </c>
       <c r="Q18">
-        <v>2.987797277430854</v>
+        <v>610.7986651302164</v>
       </c>
       <c r="R18">
-        <v>2.987797277430854</v>
+        <v>5497.187986171948</v>
       </c>
       <c r="S18">
-        <v>0.000180944006139674</v>
+        <v>0.03282813334394427</v>
       </c>
       <c r="T18">
-        <v>0.000180944006139674</v>
+        <v>0.03610182102489631</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,805 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>59.89871966666666</v>
+      </c>
+      <c r="H19">
+        <v>179.696159</v>
+      </c>
+      <c r="I19">
+        <v>0.4243743751399511</v>
+      </c>
+      <c r="J19">
+        <v>0.4247034558178204</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>15.5775195</v>
+      </c>
+      <c r="N19">
+        <v>31.155039</v>
+      </c>
+      <c r="O19">
+        <v>0.1181720584002661</v>
+      </c>
+      <c r="P19">
+        <v>0.08657047864456238</v>
+      </c>
+      <c r="Q19">
+        <v>933.0734736325336</v>
+      </c>
+      <c r="R19">
+        <v>5598.440841795201</v>
+      </c>
+      <c r="S19">
+        <v>0.05014919344261472</v>
+      </c>
+      <c r="T19">
+        <v>0.03676678145214847</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.5844243333333333</v>
+      </c>
+      <c r="H20">
+        <v>1.753273</v>
+      </c>
+      <c r="I20">
+        <v>0.004140567822736531</v>
+      </c>
+      <c r="J20">
+        <v>0.004143778621846211</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>20.003843</v>
+      </c>
+      <c r="N20">
+        <v>40.007686</v>
+      </c>
+      <c r="O20">
+        <v>0.1517504313331627</v>
+      </c>
+      <c r="P20">
+        <v>0.1111693208434551</v>
+      </c>
+      <c r="Q20">
+        <v>11.69073260937967</v>
+      </c>
+      <c r="R20">
+        <v>70.14439565627801</v>
+      </c>
+      <c r="S20">
+        <v>0.0006283329530644831</v>
+      </c>
+      <c r="T20">
+        <v>0.0004606610551162717</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.5844243333333333</v>
+      </c>
+      <c r="H21">
+        <v>1.753273</v>
+      </c>
+      <c r="I21">
+        <v>0.004140567822736531</v>
+      </c>
+      <c r="J21">
+        <v>0.004143778621846211</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>85.28390633333333</v>
+      </c>
+      <c r="N21">
+        <v>255.851719</v>
+      </c>
+      <c r="O21">
+        <v>0.6469691634682588</v>
+      </c>
+      <c r="P21">
+        <v>0.710934939797831</v>
+      </c>
+      <c r="Q21">
+        <v>49.84199010292078</v>
+      </c>
+      <c r="R21">
+        <v>448.577910926287</v>
+      </c>
+      <c r="S21">
+        <v>0.002678819700559444</v>
+      </c>
+      <c r="T21">
+        <v>0.002945957005057775</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.5844243333333333</v>
+      </c>
+      <c r="H22">
+        <v>1.753273</v>
+      </c>
+      <c r="I22">
+        <v>0.004140567822736531</v>
+      </c>
+      <c r="J22">
+        <v>0.004143778621846211</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.3719913333333333</v>
+      </c>
+      <c r="N22">
+        <v>1.115974</v>
+      </c>
+      <c r="O22">
+        <v>0.002821950026578976</v>
+      </c>
+      <c r="P22">
+        <v>0.003100955942789443</v>
+      </c>
+      <c r="Q22">
+        <v>0.2174007869891111</v>
+      </c>
+      <c r="R22">
+        <v>1.956607082902</v>
+      </c>
+      <c r="S22">
+        <v>1.168447547742341E-05</v>
+      </c>
+      <c r="T22">
+        <v>1.284967494301785E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.5844243333333333</v>
+      </c>
+      <c r="H23">
+        <v>1.753273</v>
+      </c>
+      <c r="I23">
+        <v>0.004140567822736531</v>
+      </c>
+      <c r="J23">
+        <v>0.004143778621846211</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.3862156666666667</v>
+      </c>
+      <c r="N23">
+        <v>1.158647</v>
+      </c>
+      <c r="O23">
+        <v>0.002929856728244252</v>
+      </c>
+      <c r="P23">
+        <v>0.003219531369230071</v>
+      </c>
+      <c r="Q23">
+        <v>0.2257138335145556</v>
+      </c>
+      <c r="R23">
+        <v>2.031424501631</v>
+      </c>
+      <c r="S23">
+        <v>1.213127049419628E-05</v>
+      </c>
+      <c r="T23">
+        <v>1.334102526017883E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.5844243333333333</v>
+      </c>
+      <c r="H24">
+        <v>1.753273</v>
+      </c>
+      <c r="I24">
+        <v>0.004140567822736531</v>
+      </c>
+      <c r="J24">
+        <v>0.004143778621846211</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>10.19719066666667</v>
+      </c>
+      <c r="N24">
+        <v>30.591572</v>
+      </c>
+      <c r="O24">
+        <v>0.07735654004348905</v>
+      </c>
+      <c r="P24">
+        <v>0.08500477340213224</v>
+      </c>
+      <c r="Q24">
+        <v>5.959486357239555</v>
+      </c>
+      <c r="R24">
+        <v>53.635377215156</v>
+      </c>
+      <c r="S24">
+        <v>0.0003203000005823007</v>
+      </c>
+      <c r="T24">
+        <v>0.000352240962778637</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.5844243333333333</v>
+      </c>
+      <c r="H25">
+        <v>1.753273</v>
+      </c>
+      <c r="I25">
+        <v>0.004140567822736531</v>
+      </c>
+      <c r="J25">
+        <v>0.004143778621846211</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>15.5775195</v>
+      </c>
+      <c r="N25">
+        <v>31.155039</v>
+      </c>
+      <c r="O25">
+        <v>0.1181720584002661</v>
+      </c>
+      <c r="P25">
+        <v>0.08657047864456238</v>
+      </c>
+      <c r="Q25">
+        <v>9.1038814487745</v>
+      </c>
+      <c r="R25">
+        <v>54.62328869264701</v>
+      </c>
+      <c r="S25">
+        <v>0.0004892994225586839</v>
+      </c>
+      <c r="T25">
+        <v>0.0003587288986903315</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.5</v>
+      </c>
+      <c r="G26">
+        <v>0.014596</v>
+      </c>
+      <c r="H26">
+        <v>0.029192</v>
+      </c>
+      <c r="I26">
+        <v>0.000103410697490914</v>
+      </c>
+      <c r="J26">
+        <v>6.89939248074513E-05</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>20.003843</v>
+      </c>
+      <c r="N26">
+        <v>40.007686</v>
+      </c>
+      <c r="O26">
+        <v>0.1517504313331627</v>
+      </c>
+      <c r="P26">
+        <v>0.1111693208434551</v>
+      </c>
+      <c r="Q26">
+        <v>0.291976092428</v>
+      </c>
+      <c r="R26">
+        <v>1.167904369712</v>
+      </c>
+      <c r="S26">
+        <v>1.569261794870941E-05</v>
+      </c>
+      <c r="T26">
+        <v>7.670007763168773E-06</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
         <v>27</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0.298487506554318</v>
-      </c>
-      <c r="H19">
-        <v>0.298487506554318</v>
-      </c>
-      <c r="I19">
-        <v>0.002205020420653806</v>
-      </c>
-      <c r="J19">
-        <v>0.002205020420653806</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>13.0083678131839</v>
-      </c>
-      <c r="N19">
-        <v>13.0083678131839</v>
-      </c>
-      <c r="O19">
-        <v>0.1066422807427814</v>
-      </c>
-      <c r="P19">
-        <v>0.1066422807427814</v>
-      </c>
-      <c r="Q19">
-        <v>3.882835272898709</v>
-      </c>
-      <c r="R19">
-        <v>3.882835272898709</v>
-      </c>
-      <c r="S19">
-        <v>0.000235148406742929</v>
-      </c>
-      <c r="T19">
-        <v>0.000235148406742929</v>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0.5</v>
+      </c>
+      <c r="G27">
+        <v>0.014596</v>
+      </c>
+      <c r="H27">
+        <v>0.029192</v>
+      </c>
+      <c r="I27">
+        <v>0.000103410697490914</v>
+      </c>
+      <c r="J27">
+        <v>6.89939248074513E-05</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>85.28390633333333</v>
+      </c>
+      <c r="N27">
+        <v>255.851719</v>
+      </c>
+      <c r="O27">
+        <v>0.6469691634682588</v>
+      </c>
+      <c r="P27">
+        <v>0.710934939797831</v>
+      </c>
+      <c r="Q27">
+        <v>1.244803896841333</v>
+      </c>
+      <c r="R27">
+        <v>7.468823381048</v>
+      </c>
+      <c r="S27">
+        <v>6.690353244936579E-05</v>
+      </c>
+      <c r="T27">
+        <v>4.905019177940147E-05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0.5</v>
+      </c>
+      <c r="G28">
+        <v>0.014596</v>
+      </c>
+      <c r="H28">
+        <v>0.029192</v>
+      </c>
+      <c r="I28">
+        <v>0.000103410697490914</v>
+      </c>
+      <c r="J28">
+        <v>6.89939248074513E-05</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>0.3719913333333333</v>
+      </c>
+      <c r="N28">
+        <v>1.115974</v>
+      </c>
+      <c r="O28">
+        <v>0.002821950026578976</v>
+      </c>
+      <c r="P28">
+        <v>0.003100955942789443</v>
+      </c>
+      <c r="Q28">
+        <v>0.005429585501333333</v>
+      </c>
+      <c r="R28">
+        <v>0.032577513008</v>
+      </c>
+      <c r="S28">
+        <v>2.918198205330351E-07</v>
+      </c>
+      <c r="T28">
+        <v>2.139471211480341E-07</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.5</v>
+      </c>
+      <c r="G29">
+        <v>0.014596</v>
+      </c>
+      <c r="H29">
+        <v>0.029192</v>
+      </c>
+      <c r="I29">
+        <v>0.000103410697490914</v>
+      </c>
+      <c r="J29">
+        <v>6.89939248074513E-05</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0.3862156666666667</v>
+      </c>
+      <c r="N29">
+        <v>1.158647</v>
+      </c>
+      <c r="O29">
+        <v>0.002929856728244252</v>
+      </c>
+      <c r="P29">
+        <v>0.003219531369230071</v>
+      </c>
+      <c r="Q29">
+        <v>0.005637203870666667</v>
+      </c>
+      <c r="R29">
+        <v>0.033823223224</v>
+      </c>
+      <c r="S29">
+        <v>3.029785278161853E-07</v>
+      </c>
+      <c r="T29">
+        <v>2.221281052038903E-07</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.5</v>
+      </c>
+      <c r="G30">
+        <v>0.014596</v>
+      </c>
+      <c r="H30">
+        <v>0.029192</v>
+      </c>
+      <c r="I30">
+        <v>0.000103410697490914</v>
+      </c>
+      <c r="J30">
+        <v>6.89939248074513E-05</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>10.19719066666667</v>
+      </c>
+      <c r="N30">
+        <v>30.591572</v>
+      </c>
+      <c r="O30">
+        <v>0.07735654004348905</v>
+      </c>
+      <c r="P30">
+        <v>0.08500477340213224</v>
+      </c>
+      <c r="Q30">
+        <v>0.1488381949706666</v>
+      </c>
+      <c r="R30">
+        <v>0.8930291698239999</v>
+      </c>
+      <c r="S30">
+        <v>7.999493761381019E-06</v>
+      </c>
+      <c r="T30">
+        <v>5.864812944381148E-06</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.5</v>
+      </c>
+      <c r="G31">
+        <v>0.014596</v>
+      </c>
+      <c r="H31">
+        <v>0.029192</v>
+      </c>
+      <c r="I31">
+        <v>0.000103410697490914</v>
+      </c>
+      <c r="J31">
+        <v>6.89939248074513E-05</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>15.5775195</v>
+      </c>
+      <c r="N31">
+        <v>31.155039</v>
+      </c>
+      <c r="O31">
+        <v>0.1181720584002661</v>
+      </c>
+      <c r="P31">
+        <v>0.08657047864456238</v>
+      </c>
+      <c r="Q31">
+        <v>0.227369474622</v>
+      </c>
+      <c r="R31">
+        <v>0.9094778984880001</v>
+      </c>
+      <c r="S31">
+        <v>1.222025498310853E-05</v>
+      </c>
+      <c r="T31">
+        <v>5.972837094148006E-06</v>
       </c>
     </row>
   </sheetData>
